--- a/biology/Zoologie/Eukoenenia/Eukoenenia.xlsx
+++ b/biology/Zoologie/Eukoenenia/Eukoenenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia est un  genre de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents dans les zones tropicales et tempérées.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Palpigrades of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Palpigrades of the World (version 1.0) :
 Eukoenenia angolensis (Rémy, 1956)
 Eukoenenia angusta (Hansen, 1901)
 Eukoenenia ankaratrensis Rémy, 1960
@@ -640,8 +656,8 @@
 Eukoenenia valencianus Barranco &amp; Mayoral, 2014
 Eukoenenia vargovitshi Christian, 2014
 Eukoenenia virgemdalapa Souza &amp; Ferreira, 2012
-Eukoenenia zariquieyi (Condé, 1951), l'ancienne sous-espèce Eukoenenia draco zariquieyi a été élevée au rang d'espèce par Mayoral et Barranco en 2013[2].
-Eukoenenia gallii a été placée dans le genre Leptokoenenia par Souza et Ferreira en 2013[3].
+Eukoenenia zariquieyi (Condé, 1951), l'ancienne sous-espèce Eukoenenia draco zariquieyi a été élevée au rang d'espèce par Mayoral et Barranco en 2013.
+Eukoenenia gallii a été placée dans le genre Leptokoenenia par Souza et Ferreira en 2013.
 </t>
         </is>
       </c>
@@ -670,9 +686,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit sous le nom Koenenia par Grassi et Calandruccio en 1885[4], le nom  Koenenia Grassi &amp; Calandruccio, 1885 étant préoccupé par Koenenia Beushausen, 1884 dans les mollusques, il a été remplacé par Eukoenenia par Roewer en 1934, un synonyme qui avait été décrit comme un sous-genre.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit sous le nom Koenenia par Grassi et Calandruccio en 1885, le nom  Koenenia Grassi &amp; Calandruccio, 1885 étant préoccupé par Koenenia Beushausen, 1884 dans les mollusques, il a été remplacé par Eukoenenia par Roewer en 1934, un synonyme qui avait été décrit comme un sous-genre.
 </t>
         </is>
       </c>
@@ -701,7 +719,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Börner, 1901 : « Zur äußeren Morphologie von Koenenia mirabilis Grassi. » Zoologischer Anzeiger, vol. 24, p. 537-556 (texte intégral).
 Grassi &amp; Calandruccio, 1885 : « Intorno ad un nuovo Aracnide Artrogastro (Koenenia mirabilis), che crediamo rappresentante d'un nuovo ordine (Microtelifonidi). » Naturalista Siciliano, vol. 4, p. 127-133 &amp; 162-169 (texte intégral).</t>
